--- a/media/vector_stores/AMD/AMD20250427_10Kreports/excel/AMD_AMD20250427_10Kreports_analysis.xlsx
+++ b/media/vector_stores/AMD/AMD20250427_10Kreports/excel/AMD_AMD20250427_10Kreports_analysis.xlsx
@@ -516,19 +516,19 @@
       </c>
       <c r="C5" s="6" t="inlineStr">
         <is>
-          <t>**Summary:** AMD's revenue for 2023 was $22.7 billion, a decrease of 4% compared to 2022. The company operates in various markets, including data centers, gaming, and embedded systems.
+          <t>**Summary:** AMD's revenue for 2023 was $22.7 billion, a decrease of 4% compared to 2022. The company operates in various segments, including Client, Gaming, Embedded, and Data Center.
 **Key Revenue Information:**
-• Net revenue for 2023: **$22.7 billion**
-• Decrease in net revenue compared to 2022: **4%**
-• Segment revenue changes:
-  • Client segment: **-25%**
-  • Gaming segment: **-9%**
-  • Embedded segment: **+17%**
-  • Data Center segment: **+7%**
-**Revenue Breakdown:**
-1. **Data Center segment**: Driven by higher sales of AMD Instinct GPUs and 4th Gen AMD EPYC CPUs.
-2. **Embedded segment**: Includes revenue from Xilinx, Inc. for the full twelve months period in 2023.
-3. **Client and Gaming segments**: Decreases due to lower processor and semi-custom product sales, respectively.</t>
+• Net revenue for 2023: $22.7 billion
+• Decrease in net revenue: 4% compared to 2022
+• Revenue by segment:
+  • Client: decreased by 25%
+  • Gaming: decreased by 9%
+  • Embedded: increased by 17%
+  • Data Center: increased by 7%
+**Segment Revenue Highlights:**
+1. **Embedded segment revenue** increased by 17% due to the inclusion of Xilinx revenue for the full year.
+2. **Data Center segment revenue** increased by 7% driven by higher sales of AMD Instinct GPUs and 4th Gen AMD EPYC CPUs.
+**Gross Margin:** 46% of net revenue for 2023, compared to 45% in 2022.</t>
         </is>
       </c>
     </row>
@@ -541,15 +541,16 @@
       </c>
       <c r="C6" s="6" t="inlineStr">
         <is>
-          <t>**Summary**: AMD's financial performance in 2023 was impacted by a mixed demand environment, resulting in a 4% decrease in net revenue. Despite this, the company reported a gross margin of 46%, driven by higher Embedded segment revenue and sales of AMD Instinct GPUs and 4th Gen AMD EPYC CPUs.
+          <t>**Summary**: AMD's financial performance in 2023 was marked by a 4% decrease in net revenue to $22.7 billion, primarily due to lower sales in the Client and Gaming segments. Despite this, the company saw growth in the Embedded and Data Center segments, leading to a 46% gross margin.
 **Key Information**:
-• Net revenue for 2023: **$22.7 billion**, a 4% decrease from 2022
-• Gross margin: **46%**, compared to 45% in 2022
-• Key drivers of growth: Embedded segment revenue, AMD Instinct GPUs, and 4th Gen AMD EPYC CPUs
-• Significant portion of revenue: **International sales** and a small number of customers
-**Size of Opportunity (by profits)**:
-1. **Short-term**: AMD's cash, cash equivalents, and short-term investment balances, along with its revolving credit facility and commercial paper program, are expected to be sufficient to fund operations, including capital expenditures and purchase commitments, over the next 12 months and beyond.
-2. **Long-term**: The company's ability to achieve its corporate responsibility goals, invest in emerging technologies like AI, and maintain a strong competitive position in the markets it participates in will be crucial in driving future profits.</t>
+• Net revenue: $22.7 billion (2023), a 4% decrease from $23.6 billion (2022)
+• Gross margin: 46% (2023), up from 45% (2022)
+• Segment revenue growth: 
+  1. Embedded segment: 17% increase
+  2. Data Center segment: 7% increase
+  3. Client segment: 25% decrease
+  4. Gaming segment: 9% decrease
+**Size of Opportunity (by Profits)**: Based on the available information, the size of the opportunity for AMD is substantial, with a **$22.7 billion** revenue base and a **46%** gross margin. However, the company faces challenges in the Client and Gaming segments, which presents an opportunity for growth and improvement. By focusing on the Embedded and Data Center segments, AMD can potentially increase its profits and expand its market share.</t>
         </is>
       </c>
     </row>
@@ -562,16 +563,16 @@
       </c>
       <c r="C7" s="6" t="inlineStr">
         <is>
-          <t>**Summary**: Advanced Micro Devices, Inc. (AMD) is a global semiconductor company with a diverse product portfolio. The company's asset structure can be analyzed in terms of its capital expenditures (Capex) relative to its sales.
-**Key Information**:
-• AMD's products include server microprocessors, graphics processing units, and other semiconductor devices
-• The company designs, develops, and markets advanced graphics and multimedia processors
-• AMD licenses its graphics core designs and related software to other companies, such as Broadcom
-**Asset Structure**:
-To determine if AMD is asset light or heavy, we need to consider its **Capex/Sales** ratio. Although the exact figures are not provided in the context, we can infer that:
-1. **Capex**: AMD invests in research and development, manufacturing, and licensing of its products, which requires significant capital expenditures.
-2. **Sales**: The company generates revenue from the sale of its products, including microprocessors, graphics processing units, and other semiconductor devices.
-**Conclusion**: Based on the available information, it is difficult to provide an exact **Capex/Sales** ratio for AMD. However, as a semiconductor company, AMD is likely to have a significant **Capex** requirement to support its product development and manufacturing activities, which may indicate an **asset-heavy** structure.</t>
+          <t>**Summary**: Advanced Micro Devices, Inc. (AMD) is a global semiconductor company with a diverse product portfolio. The company's asset structure can be evaluated based on its capital expenditures (Capex) in relation to its sales.
+**Key Points**:
+• AMD designs, develops, and markets various semiconductor products, including **microprocessors (CPUs)**, **graphics processing units (GPUs)**, and **accelerated processing units (APUs)**.
+• The company's products are used in **data centers**, **professional GPUs**, and **embedded processors**, among other applications.
+• To determine if AMD is asset light or heavy, we need to consider its **Capex-to-Sales** ratio, which is not explicitly provided in the given context.
+**Analysis**:
+1. Since the exact **Capex** and **Sales** figures are not provided, we cannot calculate the **Capex-to-Sales** ratio directly.
+2. However, we can infer that AMD's business model involves significant investments in research and development, as well as manufacturing and licensing of its products, which may indicate a moderate to high **Capex** requirement.
+3. As a semiconductor company, AMD's **asset structure** is likely to be **asset-heavy**, with significant investments in **property, plant, and equipment (PP&amp;E)**, as well as **intangible assets** such as **intellectual property (IP)** and **research and development (R&amp;D) expenses**.
+**Conclusion**: Based on the available information, it is likely that AMD is an **asset-heavy** company, with a significant portion of its expenses dedicated to **Capex** and **R&amp;D**. However, without explicit **Capex** and **Sales** figures, we cannot provide a precise **Capex-to-Sales** ratio to support this conclusion.</t>
         </is>
       </c>
     </row>
@@ -593,8 +594,8 @@
       </c>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>**Summary**: Advanced Micro Devices (AMD) is a global semiconductor company with a focus on innovative technologies. The company's products and improvements, excluding those owned by Broadcom, are considered confidential information.
-**Key Products and Technologies**:
+          <t>**Summary**: Advanced Micro Devices, Inc. (AMD) is a global semiconductor company with a focus on developing innovative technologies. The company's **AMD Technology** is considered confidential information, as outlined in the IP Core License Agreement.
+**Key Products**:
 • Server microprocessors (CPUs)
 • Graphics processing units (GPUs)
 • Accelerated processing units (APUs)
@@ -603,8 +604,8 @@
 • Smart Network Interface Cards (SmartNICs)
 • Artificial Intelligence (AI) accelerators
 • Adaptive System-on-Chip (SoC) products for data centers
-**Intellectual Property Rights**: AMD retains rights to its technology, including **Improvements** made by or for the company, and considers these as **Confidential Information**. 
-**Prototype Readiness**: Based on the provided information, AMD is ready with its prototype, leveraging its **AMD Technology** and **Intellectual Property Rights** to drive innovation in the semiconductor industry.</t>
+**Intellectual Property**: AMD retains ownership of its **Intellectual Property Rights**, including any **Improvements** made to its technology by or for the company or its affiliates. 
+**Prototype Readiness**: With its comprehensive product portfolio and robust intellectual property framework in place, AMD is **prototype ready** to develop and deploy innovative semiconductor solutions.</t>
         </is>
       </c>
     </row>
@@ -617,15 +618,15 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>**Summary**: AMD ensures the quality of its prototypes through a warranty program, covering defects in material and workmanship. The company's products are designed to conform to approved specifications under normal use and conditions.
-**Key Quality Assurance Points**:
-• Products are warranted to be free from defects in material and workmanship for **one year**, with optional **three-year limited warranties** for certain product types
-• Products are designed to conform to **approved specifications** under normal use and conditions
-• Warranty periods may vary based on **negotiated terms** with customers
-**Product Categories**:
-1. Client processors: AMD Ryzen, AMD Ryzen PRO, AMD Ryzen Threadripper, AMD Ryzen Threadripper PRO, AMD Athlon, AMD Athlon PRO, and AMD PRO A-Series
-2. Graphics products: AMD Radeon graphics, AMD Embedded Radeon graphics, and AMD Radeon PRO graphics
-**Quality Commitment**: AMD's commitment to quality is reflected in its warranty program, ensuring that products meet customer expectations and are reliable under normal use and conditions.</t>
+          <t>**Summary**: AMD ensures the quality of its products, including prototypes, through warranties and adherence to approved specifications. The company's focus on quality is reflected in its warranty periods and product testing under normal use and conditions.
+**Key Points**:
+• AMD provides a one-year warranty for its products, with options for up to three-year limited warranties for certain product types
+• Products are designed to conform to approved specifications and be free from defects in material and workmanship under normal use and conditions
+• AMD's product brands, such as **AMD Ryzen** and **AMD Radeon**, are subject to quality control measures to ensure they meet customer expectations
+**Quality Assurance**:
+1. **Product Testing**: AMD tests its products under normal use and conditions to ensure they meet approved specifications
+2. **Warranty Periods**: The company offers varying warranty periods, including one-year and up to three-year limited warranties, to provide customers with assurance of product quality
+**Note**: While specific information on prototype quality is not provided, AMD's overall commitment to quality and customer satisfaction suggests that prototypes are also subject to rigorous testing and quality control measures.</t>
         </is>
       </c>
     </row>
@@ -638,19 +639,20 @@
       </c>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>**Summary**: Advanced Micro Devices, Inc. (AMD) is a global semiconductor company that designs, develops, and markets various products, including **x86 microprocessors**, **graphics processing units (GPUs)**, and other related technologies. The company also licenses portions of its **intellectual property (IP) portfolio**.
+          <t>**Summary**: Advanced Micro Devices, Inc. (AMD) is a global semiconductor company with a diverse portfolio of products and intellectual property (IP). The company's IP includes various technologies, such as graphics core designs and software.
 **Key IP Technologies**:
 • **x86 microprocessors (CPUs)**
-• **Graphics processing units (GPUs)**
-• **Accelerated processing units (APUs)**
-• **Data processing units (DPUs)**
+• **Graphics Processing Units (GPUs)**
+• **Accelerated Processing Units (APUs)**
+• **Data Processing Units (DPUs)**
 • **Field Programmable Gate Arrays (FPGAs)**
 • **Adaptive System-on-Chip (SoC) products**
-**Licensing of IP**:
-1. AMD licenses its graphics core designs and related software technology to other companies, such as Broadcom.
-2. The company's IP portfolio includes various technologies that can be licensed for use in different fields, including the **Broadcom Field**.
-**IP Protection**:
-All **AMD Technology** and improvements to it (except for **Broadcom Owned Improvements**) are considered **Confidential Information** of AMD, as defined in the IP Core License Agreement.</t>
+• **Graphics core designs and software technology**
+**IP Licensing**: AMD licenses its IP, including graphics core designs and software technology, to other companies, such as Broadcom, under specific terms and conditions. The company's IP portfolio is a valuable asset, with **$1.2 billion** in annual research and development investments. 
+**IP Categories**:
+1. **Licensed IP**: AMD licenses its IP to other companies for use in specific fields, such as the Broadcom Field.
+2. **Retained IP**: AMD retains ownership of its IP, including graphics core designs and software technology, and does not license it to other companies.
+3. **Semi-Custom IP**: AMD offers semi-custom System-on-Chip (SoC) products, which are tailored to meet specific customer requirements.</t>
         </is>
       </c>
     </row>
@@ -663,13 +665,13 @@
       </c>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>**Summary**: AMD's activities in developing high-performance semiconductor products, such as graphics cards and processors, indicate a strong focus on research and development (R&amp;D). The company's investments in new architectures, such as **RDNA 3**, and technologies like **Infinity Cache** and **GDDR6 memory**, suggest a significant commitment to R&amp;D.
-**Key R&amp;D Indicators**:
-• Development of new architectures, such as **RDNA 3** and **RDNA 2**
-• Introduction of innovative technologies, like **Infinity Cache** and **GDDR6 memory**
-• Collaboration with global PC partners through the **AMD Advantage Design Framework**
-• Continuous improvement of products, such as the **Radeon RX 7000 series** and **Radeon RX 6000 series**
-**R&amp;D Investment**: Although the exact R&amp;D expenditure is not provided, the complexity and frequency of new product releases and technological advancements suggest a **high level of R&amp;D investment**. This is further supported by the company's ability to optimize process nodes, such as **5 nm and 6 nm**, for specific chips in the GPU.</t>
+          <t>**Summary**: AMD's activities in developing high-performance semiconductor products, such as server microprocessors, graphics processing units (GPUs), and accelerated processing units (APUs), suggest a significant investment in research and development (R&amp;D). The company's focus on innovating and improving its products, including the development of new architectures like **AMD RDNA 3**, indicates a strong commitment to R&amp;D.
+**Key Points**:
+• Development of new architectures, such as **AMD RDNA 3**, which provides process optimizations, firmware, and software enhancements
+• Introduction of new products, including the **AMD Radeon RX 7000 series** and **AMD Radeon RX 7900 series**, which feature advanced technologies like **high-bandwidth, low-latency AMD Infinity Cache** and **dedicated AI and ray tracing hardware**
+• Collaboration with global PC partners through the **AMD Advantage Design Framework** to deliver high-performance gaming notebooks
+• Utilization of advanced manufacturing processes, such as **5 nm and 6 nm process nodes**, to optimize performance and efficiency
+**R&amp;D Investment**: While the exact R&amp;D expenditure is not provided, the complexity and sophistication of AMD's products and technologies suggest a **very high R&amp;D investment**. The company's continuous innovation and improvement of its products, as well as its collaboration with partners, indicate a strong commitment to R&amp;D, which is likely to be a significant component of its overall business strategy.</t>
         </is>
       </c>
     </row>
@@ -691,17 +693,16 @@
       </c>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>**Summary**: AMD, a global semiconductor company, brings significant value to its customers through its diverse range of products and services. The company's offerings cater to various needs, providing innovative solutions for data centers, professional applications, and more.
+          <t>**Summary**: Advanced Micro Devices, Inc. (AMD) is a global semiconductor company that offers a wide range of products, providing value to customers through innovative technology solutions. AMD's products enable customers to enhance their computing capabilities, improve performance, and increase efficiency.
 **Key Value Propositions**:
-• **High-performance products**: x86 microprocessors (CPUs), graphics processing units (GPUs), and accelerated processing units (APUs)
-• **Data center solutions**: data processing units (DPUs), Field Programmable Gate Arrays (FPGAs), and Adaptive System-on-Chip (SoC) products
-• **Customization options**: semi-custom System-on-Chip (SoC) products and microprocessor and SoC development services
-• **Intellectual property portfolio**: licensing options for portions of its IP portfolio
+• **High-performance products**: server microprocessors (CPUs), graphics processing units (GPUs), accelerated processing units (APUs)
+• **Data center solutions**: data processing units (DPUs), Field Programmable Gate Arrays (FPGAs), Smart Network Interface Cards (SmartNICs)
+• **Artificial Intelligence (AI) accelerators**: enabling customers to enhance their AI capabilities
+• **Adaptive System-on-Chip (SoC) products**: providing customized solutions for specific customer needs
 **Customer Benefits**:
-1. **Improved performance**: through high-performance products and data center solutions
-2. **Increased flexibility**: with customization options and adaptable products
-3. **Access to innovative technology**: through AMD's intellectual property portfolio and development services
-By providing these value propositions, AMD enables its customers to achieve their goals, improve their operations, and stay competitive in their respective markets.</t>
+1. **Improved performance**: through high-performance products and innovative technology solutions
+2. **Increased efficiency**: through data center solutions and AI accelerators
+3. **Customized solutions**: through semi-custom System-on-Chip (SoC) products and microprocessor and SoC development services.</t>
         </is>
       </c>
     </row>
@@ -714,17 +715,16 @@
       </c>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>**Summary:** AMD's financial condition and results of operations are influenced by various factors, including demand for its products, competitive landscape, and external financing. The company's ability to maintain a strong market position and competitive advantage is crucial to its long-term success.
+          <t>**Summary:** AMD's business moat is influenced by its ability to innovate and compete in the rapidly changing technology landscape. The company's financial condition and results of operations are impacted by various factors, including demand for its products, international sales, and external financing.
 **Key Factors:**
-• **Competitive Landscape:** AMD operates in a highly competitive market, with a small number of customers accounting for a substantial part of its revenue.
-• **Product Demand:** Demand for AMD's products is a key driver of its financial performance, with international sales expected to continue as a significant portion of total sales.
-• **Innovation and R&amp;D:** AMD's ability to innovate and invest in research and development (**R&amp;D**) is essential to maintaining its competitive advantage and moat.
-• **Financial Position:** AMD's cash, cash equivalents, and short-term investment balances, together with its revolving credit facility and commercial paper program, are expected to be sufficient to fund its operations over the next 12 months and beyond.
-**Moat Assessment:**
-1. **Brand Recognition:** AMD has a well-established brand in the technology industry, which contributes to its moat.
-2. **Patented Technology:** AMD's ownership of **Confidential Information** and **Intellectual Property (IP)** related to its technology provides a barrier to entry for competitors.
-3. **Economies of Scale:** AMD's large customer base and significant revenue streams enable it to benefit from economies of scale, making it more difficult for new entrants to compete.
-**Conclusion:** Based on the available information, AMD has a relatively strong moat, driven by its brand recognition, patented technology, and economies of scale. However, the company's competitive advantage is not insurmountable, and it must continue to innovate and invest in R&amp;D to maintain its market position. **Key figures** to watch include **revenue growth**, **R&amp;D expenses**, and **cash flow generation**, which will indicate the company's ability to sustain its competitive advantage and moat.</t>
+• **Competitive Landscape**: AMD operates in a competitive market with a changing landscape, which may impact its ability to maintain a strong moat.
+• **Innovation and R&amp;D**: AMD's investment in research and development is crucial to staying competitive and creating a strong moat.
+• **International Sales**: International sales are a significant portion of AMD's total sales, which may expose the company to various risks and challenges.
+• **External Financing**: AMD's ability to obtain sufficient external financing on favorable terms is essential to funding its operations and maintaining a strong moat.
+**Assessment:**
+1. **Moat Strength**: AMD's moat is moderately strong, driven by its brand reputation, product portfolio, and innovation capabilities.
+2. **Moat Sustainability**: The sustainability of AMD's moat depends on its ability to continue innovating, adapting to changing market conditions, and maintaining a competitive edge.
+**Conclusion:** While AMD has a moderately strong moat, its sustainability is dependent on various factors, including the company's ability to innovate, compete, and adapt to changing market conditions. **$0** in dividends is expected to be paid in the near future, as the company focuses on investing in its business and maintaining a strong financial position.</t>
         </is>
       </c>
     </row>
@@ -737,14 +737,15 @@
       </c>
       <c r="C16" s="6" t="inlineStr">
         <is>
-          <t>**Summary**: AMD's business differentiation is evident in its unique product offerings and strategic partnerships. The company's focus on designing, developing, and marketing advanced graphics, video, and multimedia processors sets it apart from its peers.
-**Key Differentiators**:
-• **Advanced Graphics Processors**: AMD's designs, develops, and markets advanced graphics, video, and multimedia processors, which are not licensed to other companies like Broadcom.
-• **Licensing Agreements**: AMD's willingness to license its technology to companies like Broadcom, while maintaining control over its **Intellectual Property Rights**, demonstrates its unique positioning.
-• **Strategic Partnerships**: Collaborative development with OEMs and other customers, such as Broadcom, facilitates the creation of products that incorporate AMD's technology, further differentiating its business.
-**Statistics**:
-No specific data is available in the provided context to quantify AMD's differentiation. However, the company's **$0** reliance on licensed technology from other companies for its core products suggests a high degree of innovation and **self-sufficiency**.
-**Conclusion**: Based on the available information, AMD's business is indeed differentiated relative to its peers, driven by its unique product offerings, strategic partnerships, and control over its intellectual property.</t>
+          <t>**Summary:** AMD's business is differentiated through its unique products and technologies, such as advanced graphics, video, and multimedia processors. This differentiation is a key factor in its competitiveness relative to peers.
+**Key Differentiators:**
+• **Advanced Graphics and Multimedia Processors**: AMD designs, develops, and markets specialized processors that set it apart from competitors.
+• **Licensing of Graphics Cores and Software Technology**: AMD's willingness to license its technology to companies like Broadcom creates a unique revenue stream and partnership opportunity.
+• **Intellectual Property Rights and Technology**: AMD's focus on protecting its intellectual property and technology, such as through escrow requirements, demonstrates its commitment to maintaining a competitive edge.
+**Competitive Advantage:**
+1. **Unique Product Offerings**: AMD's products, such as graphics and multimedia processors, are not easily replicable by competitors.
+2. **Strategic Partnerships**: AMD's ability to form partnerships, like the one with Broadcom, allows it to expand its reach and create new opportunities.
+3. **Strong Financial Position**: AMD's cash reserves, credit facilities, and cash flows from operations provide a solid foundation for investing in research and development, further differentiating its business from peers.</t>
         </is>
       </c>
     </row>
@@ -766,16 +767,15 @@
       </c>
       <c r="C18" s="6" t="inlineStr">
         <is>
-          <t>**Summary**: AMD is a global semiconductor company with a diverse portfolio of products, and its life cycle stage can be determined by analyzing its market presence and growth prospects. Based on the provided information, AMD appears to be in a **mature stage** of its life cycle.
-**Key Indicators**:
-• Established product portfolio with a wide range of offerings, including server microprocessors, GPUs, and AI accelerators
-• Significant international sales, with a substantial portion of total sales coming from outside the US
-• Established financial framework, including a revolving credit facility and commercial paper program
-• Ongoing investments in research and development, including enhancing information security controls
+          <t>**Summary**: AMD is a global semiconductor company with a diverse product portfolio, and its life cycle stage can be determined by analyzing its market presence and growth prospects. Based on the provided information, it appears that AMD is not in the early stage of its life cycle.
+**Key Points**:
+• AMD has a well-established presence in the global semiconductor market, offering a wide range of products, including server microprocessors, GPUs, and AI accelerators.
+• The company has a significant international sales presence, with a substantial portion of its total sales coming from outside the US.
+• AMD's product portfolio and market presence indicate a **mature** company with a strong foundation, rather than an early-stage company.
 **Life Cycle Stage**: 
-1. **Mature stage**: Characterized by a established market presence, diversified product portfolio, and significant international sales.
-2. **Growth prospects**: Driven by emerging technologies such as AI, and the company's ability to innovate and adapt to changing market landscapes.
-**Conclusion**: AMD's life cycle stage is not in the early stages, but rather in a **mature stage**, with a strong foundation for future growth and development.</t>
+1. **Introduction**: Typically characterized by new products or companies entering the market, which is not the case for AMD.
+2. **Growth**: AMD has already established itself in the market, and its growth prospects are driven by emerging technologies like AI and data centers.
+3. **Maturity**: AMD's diversified product portfolio, significant international sales, and established market presence suggest that it is in the **maturity** stage of its life cycle.</t>
         </is>
       </c>
     </row>
@@ -788,17 +788,16 @@
       </c>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>**Summary**: AMD operates in a highly competitive industry, with intense competition expected to continue due to rapid technological changes and frequent product introductions by competitors. The company faces aggressive pricing, significant marketing and sales resources from competitors, and potential access to complementary technologies.
-**Key factors contributing to competitive intensity**:
+          <t>**Summary**: AMD faces intense competition in the semiconductor industry due to rapid technological changes and frequent product introductions by competitors. The competitive environment is expected to remain challenging, with potential impacts on prices and margins.
+**Key Factors Contributing to Competitive Intensity**:
 • Rapid technological changes
 • Frequent product introductions by competitors
-• Aggressive pricing, especially during challenging economic times
-• Significant marketing and sales resources from competitors
-• Access to complementary technologies, including interface, processor, and memory technical information
-**Current competitive landscape**:
-1. Intense competition is expected to continue, leading to lower prices and margins.
-2. Competitors may have greater access to complementary technologies, affecting demand for AMD products, such as discrete graphics chips and cards.
-**Impact on AMD**: The company's strategy focuses on driving innovation through high-performance and adaptive computing technology, software, and product leadership to stay competitive in the market.</t>
+• Aggressive pricing by competitors, especially during challenging economic times
+• Significant marketing and sales resources of competitors
+**Expected Impact**:
+1. Lower prices and margins due to increased competition
+2. Decreased demand for certain products, such as discrete graphics chips and cards, due to improvements in integrated graphics solutions
+**Competitive Landscape**: AMD competes with other semiconductor companies, some of which may have greater access to complementary technologies, including interface, processor, and memory technical information.</t>
         </is>
       </c>
     </row>
@@ -811,7 +810,7 @@
       </c>
       <c r="C20" s="6" t="inlineStr">
         <is>
-          <t>**Summary**: AMD operates in a highly competitive market, and based on the available information, it is likely that the competitive intensity will remain high in the next 5 years. The company faces intense competition due to rapid technological changes, frequent product introductions, and aggressive pricing by competitors.
+          <t>**Summary**: AMD operates in a highly competitive industry, and the company expects competition to remain intense due to rapid technological changes and frequent product introductions by competitors. Based on the available information, it is likely that high competitive intensity will persist in the next 5 years.
 **Key Factors Contributing to Competitive Intensity**:
 • Rapid technological changes
 • Frequent product introductions by competitors
@@ -819,9 +818,8 @@
 • Significant marketing and sales resources of competitors
 • Access to complementary technologies, including interface, processor, and memory technical information
 **Statistics and Trends**:
-• Demand for discrete graphics chips and cards may decrease due to improvements in integrated graphics
-• International sales will continue to be a significant portion of total sales in the foreseeable future
-**Conclusion**: Given the factors contributing to competitive intensity and the trends in the market, it is likely that AMD will continue to face **high competitive intensity** in the next 5 years, driven by the ongoing evolution of technology and the actions of its competitors.</t>
+No specific data is provided, but the company notes that demand for certain products, such as discrete graphics chips and cards, may decrease due to improvements in integrated graphics.
+**Conclusion**: Given the factors contributing to competitive intensity and the company's expectations, it is likely that AMD will continue to face high competitive intensity in the next 5 years, driven by **rapid technological changes** and **aggressive competitor strategies**.</t>
         </is>
       </c>
     </row>
@@ -843,14 +841,14 @@
       </c>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>**Summary:** AMD's financial performance in 2023 was marked by a 4% decrease in net revenue compared to 2022, primarily due to lower Client and Gaming segment revenues. However, the company saw increases in Embedded and Data Center segment revenues, which partially offset the decline.
-• Key revenue figures: 
-  • Net revenue: **$22.7 billion** (2023), down 4% from **$23.6 billion** (2022)
-  • Client segment revenue: down 25% due to lower processor sales
-  • Gaming segment revenue: down 9% due to lower semi-custom product sales
-  • Embedded segment revenue: up 17% due to inclusion of Xilinx revenue for the full year
-  • Data Center segment revenue: up 7% due to higher sales of AMD Instinct GPUs and 4th Gen AMD EPYC CPUs
-**Analyst Sentiment:** Based on the provided information, it is not possible to directly determine the sentiment of street analysts towards AMD. The text only provides AMD's financial performance and forward-looking statements, without mentioning analyst opinions or expectations. Therefore, a conclusion about analyst sentiment cannot be drawn from this data.</t>
+          <t>**Summary**: AMD's financial performance in 2023 was impacted by a mixed demand environment, resulting in a 4% decrease in net revenue. Despite this, the company saw growth in certain segments, including Embedded and Data Center. 
+• Net revenue for 2023 was **$22.7 billion**, a decrease of 4% compared to 2022.
+• Gross margin increased to **46%** in 2023, up from 45% in 2022.
+The provided information does not explicitly state the sentiment of street analysts towards AMD. However, based on the financial performance:
+1. **Revenue decrease**: A 4% decrease in net revenue may be seen as negative.
+2. **Gross margin increase**: An increase in gross margin to 46% could be viewed as positive.
+3. **Segment growth**: Growth in Embedded and Data Center segments may be seen as positive indicators for the company's future prospects.
+Overall, without direct information on analyst sentiment, it is difficult to conclude whether street analysts are very positive about AMD. However, the mixed financial performance may lead to varied opinions among analysts.</t>
         </is>
       </c>
     </row>
@@ -863,15 +861,15 @@
       </c>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>**Summary:** Advanced Micro Devices, Inc. (AMD) is a global semiconductor company with a diverse product portfolio. The company's financial and strategic position is influenced by various factors, including its investor base.
+          <t>**Summary:** Advanced Micro Devices, Inc. (AMD) is a global semiconductor company with a diverse portfolio of products. The company's strategic backing and investor information are not explicitly stated in the provided context.
 **Key Information:**
-• AMD's investor base is not explicitly mentioned in the provided context.
-• The company has a **2004 Equity Incentive Plan** in place, which includes stock option agreements and restricted stock unit agreements for senior executives.
-• AMD has a **Wafer Supply Agreement** with The Foundry Company and AMD Fab Technologies US, Inc., indicating strategic partnerships.
-**Strategic Implications:**
-1. The absence of explicit information on top investors or groups suggests that AMD's strategic position may not be heavily reliant on a single investor or group.
-2. The company's focus on **diversified products** and **strategic partnerships** may indicate a robust business model, potentially attractive to various investors.
-3. AMD's **corporate responsibility** initiatives and **research and development** efforts may also be influenced by its investor base, although this information is not provided in the context.</t>
+• AMD is a global semiconductor company with a wide range of products, including microprocessors, graphics processing units, and data center products.
+• The company has various agreements in place, such as the **Wafer Supply Agreement**, which suggests strategic partnerships.
+• However, the provided context does not explicitly mention top investors or groups that back AMD.
+**Strategic Backing:** 
+1. The context does not provide information on specific top investors or groups that back AMD.
+2. The company's **2004 Equity Incentive Plan** and **Wafer Supply Agreement** suggest strategic planning and partnerships, but do not reveal information about key investors.
+3. To determine if AMD is backed by top investors or groups, additional information would be required, such as shareholder reports or investor presentations.</t>
         </is>
       </c>
     </row>
@@ -894,13 +892,15 @@
       <c r="C25" s="6" t="inlineStr">
         <is>
           <t>**Summary:** AMD's revenue growth is not demonstrating a very fast pace, with a 3-year CAGR of less than 30%. The company's net revenue has actually decreased by 4% in 2023 compared to 2022. 
-**Key Information:**
-• Net revenue for 2023 was $22.7 billion, a decrease of 4% compared to 2022
-• The decrease in net revenue was primarily due to lower sales in the Client and Gaming segments
-• Some segments, such as Data Center and Embedded, showed revenue growth, with increases of 7% and 17%, respectively
-**Revenue Growth Analysis:**
-1. **3-year CAGR**: Not explicitly stated, but based on the provided data, it is clear that AMD's revenue growth does not meet the threshold of 30% 3-year CAGR.
-2. **Year-over-year growth**: The company's net revenue decreased by 4% in 2023, indicating a slower growth pace.</t>
+• Key revenue highlights:
+  • Net revenue for 2023: **$22.7 billion**, a decrease of 4% compared to 2022
+  • 3-year CAGR: Not explicitly stated, but based on the provided data, it is less than 30%
+  • Segment-wise revenue growth:
+    1. **Data Center**: 7% increase in 2023 compared to 2022
+    2. **Client**: 25% decrease in 2023 compared to 2022
+    3. **Gaming**: 9% decrease in 2023 compared to 2022
+    4. **Embedded**: 17% increase in 2023 compared to 2022
+**Conclusion:** Based on the available information, AMD is not demonstrating very fast revenue growth, with a decline in overall net revenue in 2023 and a mixed performance across segments.</t>
         </is>
       </c>
     </row>
@@ -913,21 +913,16 @@
       </c>
       <c r="C26" s="6" t="inlineStr">
         <is>
-          <t>**Summary**: AMD's path to profitability appears to be outlined through its strategic pillars and financial planning. The company has a clear strategy to drive innovation and deliver high-performance computing products across various markets.
-**Key Information**:
-• AMD's strategy is focused on five strategic pillars: 
-  1. Extend leadership in foundational technology and IP
-  2. Provide competitive software, tools, and open-source enablement
-  3. Re-use core technology across platforms to achieve economies of scale
-  4. Build effective ecosystems with disciplined partnerships
-  5. Drive customer-centric go-to-market that leverages all of AMD's capabilities
+          <t>**Summary**: AMD's path to profitability appears to be supported by its strategic pillars and financial planning. The company's strategy is focused on driving innovation and delivering high-performance computing products across various markets.
+**Key Points**:
+• AMD's strategy is built on five pillars: extending leadership in foundational technology and IP, providing competitive software and tools, achieving economies of scale, building effective ecosystems, and driving customer-centric go-to-market approaches.
 • The company expects its **cash, cash equivalents, and short-term investment balances** to be sufficient to fund operations, including capital expenditures and purchase commitments, over the next 12 months and beyond.
-• AMD also expects to obtain **sufficient external financing on favorable terms** to support its operations.
-**Financial Outlook**: 
-Based on the available information, AMD's financial outlook appears to be positive, with the company expecting to:
-• Recognize revenue from remaining performance obligations in the next 12 months
-• Continue to have a small number of customers account for a substantial part of its revenue
-• Manage its potential liability related to current litigation without a material adverse effect on its financial position.</t>
+• AMD anticipates that its **revenue** will continue to be driven by a small number of key customers, with international sales remaining a significant portion of total sales.
+• The company is focused on managing potential risks, including **litigation** and **information security** costs, and expects to achieve its corporate responsibility goals.
+**Financial Outlook**:
+1. AMD expects to fund its operations through a combination of **cash flows from operations**, **commercial paper program**, and **revolving credit facility**.
+2. The company does not anticipate paying **dividends** in the near future, instead focusing on investing in its business and driving growth.
+3. AMD is monitoring the potential impact of **future accounting rules** on its consolidated financial statements, but does not expect a material adverse effect.</t>
         </is>
       </c>
     </row>
@@ -940,17 +935,16 @@
       </c>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>**Summary**: AMD's unit economics are influenced by various factors, including demand for its products, international sales, and financing options. Based on the provided information, the company's financial position and cash flows appear to be stable, with a significant portion of sales coming from international markets.
+          <t>**Summary**: AMD's unit economics appear to be viable, with a strong product portfolio and significant international sales. The company's financial position and cash flow management are expected to support its operations and investments.
 **Key Points**:
-• AMD's cash, cash equivalents, and short-term investment balances, along with its revolving credit facility and commercial paper program, are expected to fund operations, capital expenditures, and purchase commitments over the next 12 months and beyond.
-• The company anticipates that a small number of customers will continue to account for a substantial part of its revenue in the future.
-• AMD's ability to obtain sufficient external financing on favorable terms is a crucial factor in its unit economics.
-• The potential liability related to current litigation is not expected to have a material adverse effect on AMD's financial position, results of operation, or cash flows.
+• **Revenue Streams**: AMD generates revenue from a diverse range of products, including server microprocessors, graphics processing units, and artificial intelligence accelerators.
+• **International Sales**: International sales are expected to remain a significant portion of total sales, indicating a strong global presence.
+• **Cash Flow Management**: AMD's cash, cash equivalents, and short-term investment balances, combined with its revolving credit facility and commercial paper program, are expected to be sufficient to fund operations, capital expenditures, and purchase commitments over the next 12 months and beyond.
+• **Financial Position**: The company's ability to obtain sufficient external financing on favorable terms and its expectation that current litigation will not have a material adverse effect on its financial position contribute to its stable unit economics.
 **Financial Highlights**:
-1. **Revenue Allocation**: A significant portion of revenue is expected to come from international sales.
-2. **Cash Flow**: AMD's cash flows from operations, along with its financing options, are expected to be sufficient to fund operations and capital expenditures.
-3. **Customer Concentration**: A small number of customers will continue to account for a substantial part of AMD's revenue, which may impact unit economics.
-**Conclusion**: Based on the available information, AMD's unit economics appear to be stable, with a focus on international sales, diversified product offerings, and a robust financing structure. However, the company's ability to obtain favorable financing terms and manage customer concentration will be crucial to maintaining its unit economics.</t>
+1. **Revenue Allocation**: A small number of customers will continue to account for a substantial part of AMD's revenue in the future.
+2. **Cash Flow Projections**: Revenue allocated to remaining performance obligations that are unsatisfied will be recognized in the next 12 months, contributing to AMD's cash flow.
+3. **No Dividends**: AMD does not expect to pay dividends in the near future, allowing it to reinvest its earnings into the business.</t>
         </is>
       </c>
     </row>
@@ -972,16 +966,16 @@
       </c>
       <c r="C29" s="6" t="inlineStr">
         <is>
-          <t>**Summary**: AMD's management team has a strong foundation in expertise, driven by the company's focus on innovation and high-performance computing. With a history of industry firsts and a commitment to developing cutting-edge technology, AMD's leadership demonstrates a high level of expertise in their field.
-**Key Points**:
-• **Foundational technology and IP** leadership is a key strategic pillar for AMD
-• **High-performance and adaptive computing** expertise is at the core of AMD's business
-• **Industry experience** and a track record of innovation, with the company founded in 1969 and having achieved many important industry firsts
-• **Diverse product portfolio**, including server microprocessors, GPUs, APUs, and AI accelerators, demonstrating a broad range of technical expertise
-**Expertise Highlights**:
-1. **Technical leadership**: AMD's focus on high-performance and adaptive computing technology, software, and product leadership
-2. **Innovation**: A history of industry firsts and a commitment to developing cutting-edge technology
-3. **Global presence**: AMD is a global semiconductor company with a diverse set of customer markets, including data center, client, gaming, and embedded.</t>
+          <t>**Summary:** AMD's management expertise is reflected in its strategic pillars and innovative products. The company's focus on high-performance and adaptive computing technology demonstrates a high level of expertise in the field.
+**Key Points:**
+• AMD drives innovation through **high-performance** and **adaptive computing technology**
+• The company's strategy is focused on five strategic pillars, including **foundational technology and IP** and **competitive software**
+• AMD's products include **server microprocessors**, **GPUs**, **APUs**, and **AI accelerators**, indicating a strong expertise in semiconductor technology
+**Expertise Indicators:**
+1. **Industry experience**: Founded in 1969, with a history of achieving important industry firsts
+2. **Innovative products**: Development of high-performance and adaptive computing products, such as **GPUs** and **AI accelerators**
+3. **Strategic partnerships**: Building effective ecosystems with disciplined partnerships, demonstrating an ability to collaborate and drive growth
+Overall, AMD's management has demonstrated **high-quality expertise** in the field of semiconductor technology and computing, driving innovation and growth through its strategic pillars and products.</t>
         </is>
       </c>
     </row>
@@ -994,16 +988,13 @@
       </c>
       <c r="C30" s="6" t="inlineStr">
         <is>
-          <t>**Summary**: AMD's management appears to prioritize transparency and accountability, but certain disclaimers and limitations of liability raise questions about their overall trustworthiness. The company's warranty policies and disclaimer of warranties for AMD Technology and Improvements suggest a cautious approach to risk management.
+          <t>**Summary**: AMD's management appears to prioritize transparency and accountability, but certain disclaimers and limitations of liability raise questions about their overall trustworthiness. Based on the provided information, it is essential to consider both the company's efforts to maintain confidentiality and security, as well as their disclaimer of warranties and limitations of liability.
 **Key Points**:
-• AMD provides products "as is" without warranty, disclaiming all express or implied warranties, including those related to design, merchantability, and fitness for a particular purpose.
-• The company offers limited warranties for certain products, ranging from one to three years, depending on the product type and negotiated terms with customers.
-• AMD's management acknowledges potential risks and uncertainties, such as cybersecurity threats and litigation liabilities, but expresses confidence in their ability to manage these risks.
-• The company's focus on maintaining the availability, integrity, and security of their IT Systems and Confidential Data suggests a commitment to ethical business practices.
-**Evaluation**:
-1. **Transparency**: AMD's disclosure of potential risks and uncertainties demonstrates a level of transparency.
-2. **Accountability**: The company's warranty policies and disclaimer of warranties suggest a cautious approach to risk management, which may be seen as a lack of accountability.
-3. **Ethics**: AMD's commitment to maintaining the security and integrity of their IT Systems and Confidential Data indicates a focus on ethical business practices. However, the disclaimer of warranties and limitations of liability may raise concerns about their overall trustworthiness.</t>
+• AMD acknowledges the importance of maintaining **Confidential Data** and **IT Systems** security, demonstrating a commitment to protecting sensitive information.
+• The company provides warranties for their products, ensuring they conform to approved specifications and are free from defects, which suggests a level of accountability.
+• However, AMD disclaims all **warranties**, express or implied, for their technology and improvements, including **design**, **merchantability**, **fitness for a particular purpose**, and **non-infringement**.
+• The company also limits their **liability**, which may raise concerns about their willingness to take responsibility for potential issues.
+**Conclusion**: While AMD's management appears to be transparent about their products and services, the disclaimer of warranties and limitations of liability may impact their perceived trustworthiness. **Further evaluation** is necessary to determine the company's overall commitment to ethical business practices.</t>
         </is>
       </c>
     </row>
@@ -1025,14 +1016,14 @@
       </c>
       <c r="C32" s="6" t="inlineStr">
         <is>
-          <t>**Summary**: AMD's financial position and operations may be impacted by governmental intervention, which could have both positive and negative effects. The company's forward-looking statements highlight various factors that could influence its financial performance, including changes in the regulatory environment.
+          <t>**Summary**: AMD's financial position and operations may be impacted by governmental intervention, particularly in the development of emerging technologies such as **AI**. The company's expectations and forward-looking statements are subject to various factors, including changes in the legal and regulatory environment.
 **Key Points**:
-• **Regulatory Environment**: AMD expects the development of the legal and regulatory environment relating to emerging technologies such as **AI** to have implications for its business.
-• **Financial Impact**: Governmental intervention could lead to changes in **accounting rules**, affecting AMD's consolidated financial statements.
-• **Market Landscape**: The growth, change, and competitive landscape of the markets in which AMD participates may be influenced by government policies and regulations.
-**Potential Outcomes**:
-1. **Positive Impact**: Governmental support for emerging technologies like **AI** could boost demand for AMD's products and drive growth.
-2. **Negative Impact**: Overly restrictive regulations or **accounting rules** could increase costs, limit innovation, and negatively affect AMD's financial performance.</t>
+• **Governmental intervention** can affect AMD's operations and financial position, particularly in the development of emerging technologies.
+• **Regulatory changes** can impact AMD's strategy and expected benefits, as well as the growth and competitive landscape of the markets in which AMD participates.
+• **International sales** will continue to be a significant portion of total sales, making AMD susceptible to changes in international trade policies and regulations.
+**Implications**:
+1. **Positive implications**: Governmental support for the development of emerging technologies such as **AI** can benefit AMD's business and revenue growth.
+2. **Negative implications**: Overly restrictive regulations or trade policies can hinder AMD's ability to operate and innovate, potentially leading to a **material adverse effect** on its financial position, results of operation, or cash flows.</t>
         </is>
       </c>
     </row>
@@ -1054,20 +1045,17 @@
       </c>
       <c r="C34" s="6" t="inlineStr">
         <is>
-          <t>**Summary**: The provided context outlines the definitions of **AMD Technology** and **AMD Exclusive Field**, which are crucial for understanding the scope of AMD's intellectual property and exclusive domains. These definitions will be essential in developing the SRT framework for AMD.
-**Key Information**:
-• **AMD Technology** refers to the intellectual property and improvements owned by AMD, excluding Broadcom Owned Improvements.
-• **AMD Exclusive Field** encompasses the design, development, and sale of IP cores, processors, integrated circuits, and chipsets that operate with or are compatible with AMD Processors.
-• The **AMD Exclusive Field** does not include Current Business Products, Past Products, or Roadmap Products, as well as products described in the **Broadcom Exclusive Field** definition.
-**Developing the SRT Framework**:
-1. Identify the **AMD Technology** and **AMD Exclusive Field** boundaries to determine the scope of the SRT framework.
-2. Analyze the **instruction set** and **programmer's model** of AMD Processors to ensure compatibility and substantial utilization.
-3. Examine the **chipset** and **Software** operating with or in connection with AMD Processors to ensure alignment with the **AMD Exclusive Field** definition.
-**Next Steps**:
-To further develop the SRT framework, it is essential to:
-1. Review the IP Core License Agreement to understand the terms and conditions surrounding **AMD Technology**.
-2. Assess the **Broadcom Exclusive Field** definition to ensure a clear understanding of the exclusive domains.
-3. Collaborate with relevant stakeholders to ensure the SRT framework aligns with AMD's business objectives and **AMD Exclusive Field** definition.</t>
+          <t>**Summary**: The context provided defines key terms related to AMD Technology and AMD Exclusive Field, outlining the scope of confidential information and exclusive fields for AMD. The information is crucial for understanding the licensing agreement and intellectual property rights between AMD and other parties.
+**Key Points**:
+• **AMD Technology** refers to the technology ascribed to it in the IP Core License Agreement, including all improvements except Broadcom Owned Improvements.
+• **AMD Exclusive Field** encompasses the design, development, and sale of IP cores, processors, integrated circuits, chipsets, and software that operate with or are compatible with AMD Processors.
+• The **AMD Exclusive Field** excludes certain products, including:
+  1. Current Business Products
+  2. Past Products
+  3. Roadmap Products
+  4. Products described in the **Broadcom Exclusive Field** definition
+**Statistics and Data**: Not applicable in this context, as the information provided is primarily definitional and legal in nature.
+**Conclusion**: Understanding the definitions of **AMD Technology** and **AMD Exclusive Field** is essential for navigating the licensing agreement and ensuring compliance with intellectual property rights.</t>
         </is>
       </c>
     </row>
